--- a/11_Vlookup/Vlookup Set 1.xlsx
+++ b/11_Vlookup/Vlookup Set 1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Local\Temp\Rar$DIa0.368\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel_practice\11_Vlookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E6BFAF-7C5D-4142-ADA8-17F0D17D5092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
     <sheet name="Database 1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,66 +279,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="28575" y="66675"/>
-          <a:ext cx="857250" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -675,12 +616,11 @@
     <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16331,7 +16271,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$C$2:$C$501</formula1>
     </dataValidation>
   </dataValidations>
